--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC2-ARIX CLAVICULA #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC2-ARIX CLAVICULA #1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D779548-29DE-41F0-857B-F6040466F147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E972DA7-B884-45F2-AC2E-473EBBBB09B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="120" windowWidth="11520" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INGLES" sheetId="3" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -235,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="475">
   <si>
     <t>CANT.</t>
   </si>
@@ -1667,13 +1656,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2172,32 +2161,32 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2212,11 +2201,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2244,7 +2233,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2254,7 +2243,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2311,7 +2300,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2333,7 +2322,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2350,7 +2339,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -2384,7 +2373,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2397,15 +2386,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2437,12 +2426,36 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,33 +2486,78 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2514,75 +2572,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3023,10 +3012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3051,18 +3040,18 @@
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="99"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="97"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="64" t="s">
         <v>396</v>
       </c>
@@ -3071,22 +3060,22 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="110" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="103"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="58"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="113"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
@@ -3132,14 +3121,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="67"/>
       <c r="D11" s="29" t="s">
         <v>321</v>
@@ -3147,8 +3136,8 @@
       <c r="E11" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -3171,8 +3160,8 @@
       <c r="E13" s="67" t="s">
         <v>473</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -3192,8 +3181,8 @@
         <v>163</v>
       </c>
       <c r="E15" s="71"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -3212,8 +3201,8 @@
       <c r="C17" s="67"/>
       <c r="D17" s="15"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
@@ -3234,8 +3223,8 @@
         <v>324</v>
       </c>
       <c r="E19" s="71"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
@@ -4895,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" ref="G101:G137" si="2">F101*D101</f>
+        <f t="shared" ref="G101:G136" si="2">F101*D101</f>
         <v>0</v>
       </c>
     </row>
@@ -5280,13 +5269,13 @@
         <v>68</v>
       </c>
       <c r="B120" s="60" t="s">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>427</v>
       </c>
       <c r="D120" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120" s="72"/>
       <c r="F120" s="73">
@@ -5299,16 +5288,16 @@
     </row>
     <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B121" s="60" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D121" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E121" s="72"/>
       <c r="F121" s="73">
@@ -5321,13 +5310,13 @@
     </row>
     <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B122" s="60" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D122" s="3">
         <v>5</v>
@@ -5343,13 +5332,13 @@
     </row>
     <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B123" s="60" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D123" s="3">
         <v>5</v>
@@ -5365,13 +5354,13 @@
     </row>
     <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B124" s="60" t="s">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D124" s="3">
         <v>5</v>
@@ -5387,13 +5376,13 @@
     </row>
     <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B125" s="60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D125" s="3">
         <v>5</v>
@@ -5409,13 +5398,13 @@
     </row>
     <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B126" s="60" t="s">
         <v>183</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D126" s="3">
         <v>5</v>
@@ -5431,16 +5420,16 @@
     </row>
     <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="60" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B127" s="60" t="s">
-        <v>183</v>
+        <v>457</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D127" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E127" s="72"/>
       <c r="F127" s="73">
@@ -5455,14 +5444,14 @@
       <c r="A128" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="60" t="s">
-        <v>457</v>
+      <c r="B128" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D128" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128" s="72"/>
       <c r="F128" s="73">
@@ -5475,16 +5464,16 @@
     </row>
     <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>183</v>
+        <v>458</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D129" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129" s="72"/>
       <c r="F129" s="73">
@@ -5500,13 +5489,13 @@
         <v>101</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D130" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" s="72"/>
       <c r="F130" s="73">
@@ -5519,16 +5508,16 @@
     </row>
     <row r="131" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D131" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" s="72"/>
       <c r="F131" s="73">
@@ -5544,13 +5533,13 @@
         <v>102</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>440</v>
       </c>
       <c r="D132" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" s="72"/>
       <c r="F132" s="73">
@@ -5563,16 +5552,16 @@
     </row>
     <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D133" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" s="72"/>
       <c r="F133" s="73">
@@ -5588,13 +5577,13 @@
         <v>103</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>441</v>
       </c>
       <c r="D134" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="73">
@@ -5607,16 +5596,16 @@
     </row>
     <row r="135" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="60" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D135" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" s="72"/>
       <c r="F135" s="73">
@@ -5632,15 +5621,15 @@
         <v>187</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>442</v>
       </c>
       <c r="D136" s="3">
-        <v>2</v>
-      </c>
-      <c r="E136" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="E136" s="80"/>
       <c r="F136" s="73">
         <v>0</v>
       </c>
@@ -5649,39 +5638,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D137" s="3">
-        <v>3</v>
+    <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="60"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="9">
+        <f>SUM(D119:D136)</f>
+        <v>65</v>
       </c>
       <c r="E137" s="80"/>
-      <c r="F137" s="73">
-        <v>0</v>
-      </c>
-      <c r="G137" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F137" s="73"/>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="60"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="9">
-        <f>SUM(D119:D137)</f>
-        <v>65</v>
-      </c>
-      <c r="E138" s="80"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="6"/>
+      <c r="A138" s="76"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="G138" s="81">
+        <f>SUM(G24:G136)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="76"/>
@@ -5690,10 +5671,10 @@
       <c r="D139" s="16"/>
       <c r="E139" s="77"/>
       <c r="F139" s="94" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="G139" s="81">
-        <f>SUM(G24:G137)</f>
+        <f>+G138*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -5704,136 +5685,135 @@
       <c r="D140" s="16"/>
       <c r="E140" s="77"/>
       <c r="F140" s="94" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="G140" s="81">
-        <f>+G139*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f>+G138+G139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="76"/>
       <c r="B141" s="36"/>
       <c r="C141" s="10"/>
       <c r="D141" s="16"/>
       <c r="E141" s="77"/>
-      <c r="F141" s="94" t="s">
-        <v>444</v>
-      </c>
-      <c r="G141" s="81">
-        <f>+G139+G140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="76"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="79"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="79"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="43"/>
+      <c r="C142" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D142" s="43"/>
     </row>
     <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="43"/>
-      <c r="C143" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D143" s="43"/>
-    </row>
-    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C143" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="27"/>
     </row>
     <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3">
         <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E145" s="27"/>
+        <v>98</v>
+      </c>
+      <c r="E145" s="16"/>
     </row>
     <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3">
         <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E146" s="16"/>
     </row>
     <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E147" s="16"/>
+    </row>
+    <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
         <v>2</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="3">
-        <v>1</v>
-      </c>
       <c r="C148" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E148" s="16"/>
-    </row>
-    <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3">
         <v>2</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E149" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3">
         <v>2</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
     <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3">
-        <v>2</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>414</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
@@ -5843,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
@@ -5855,11 +5835,11 @@
       <c r="B153" s="3">
         <v>1</v>
       </c>
-      <c r="C153" s="31" t="s">
-        <v>415</v>
+      <c r="C153" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
@@ -5869,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
@@ -5882,52 +5862,50 @@
         <v>1</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
         <v>1</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="3">
-        <v>1</v>
-      </c>
+      <c r="B157" s="3"/>
       <c r="C157" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
       <c r="C158" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D158" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="159" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3">
         <v>1</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5946,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>82</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5957,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>405</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5968,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>83</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>411</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5990,10 +5968,10 @@
         <v>1</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>83</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6001,10 +5979,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>412</v>
+        <v>192</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>413</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6012,192 +5990,186 @@
         <v>1</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="3">
-        <v>1</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D168" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="9">
-        <f>SUM(B145:B168)</f>
+    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="9">
+        <f>SUM(B144:B167)</f>
         <v>29</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="16"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
     </row>
     <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="16"/>
       <c r="C170" s="36"/>
       <c r="D170" s="36"/>
     </row>
-    <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="16"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
+    <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="37"/>
+      <c r="B172" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="C172" s="86" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="37"/>
-      <c r="B173" s="85" t="s">
-        <v>445</v>
-      </c>
+      <c r="B173" s="87"/>
       <c r="C173" s="86" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37"/>
       <c r="B174" s="87"/>
       <c r="C174" s="86" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37"/>
       <c r="B175" s="87"/>
       <c r="C175" s="86" t="s">
-        <v>448</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37"/>
       <c r="B176" s="87"/>
       <c r="C176" s="86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="37"/>
       <c r="B177" s="87"/>
-      <c r="C177" s="86" t="s">
-        <v>198</v>
-      </c>
+      <c r="C177" s="86"/>
     </row>
     <row r="178" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
-      <c r="B178" s="87"/>
-      <c r="C178" s="86"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" s="89" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="88" t="s">
-        <v>321</v>
-      </c>
+      <c r="B179" s="88"/>
       <c r="C179" s="89" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="88"/>
       <c r="C180" s="89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="88"/>
-      <c r="C181" s="89" t="s">
-        <v>451</v>
-      </c>
+      <c r="B181" s="83"/>
+      <c r="C181" s="84"/>
     </row>
     <row r="182" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="83"/>
       <c r="C182" s="84"/>
     </row>
     <row r="183" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="83"/>
-      <c r="C183" s="84"/>
-    </row>
-    <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184"/>
+      <c r="B183"/>
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="16"/>
       <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-    </row>
-    <row r="187" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
+    <row r="186" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C187" s="32"/>
+      <c r="C186" s="32"/>
+    </row>
+    <row r="187" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187"/>
+      <c r="C187"/>
     </row>
     <row r="188" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188"/>
       <c r="C188"/>
     </row>
-    <row r="189" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189"/>
-      <c r="C189"/>
-    </row>
-    <row r="190" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
+    <row r="189" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C190" s="32"/>
+      <c r="C189" s="32"/>
+    </row>
+    <row r="192" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192"/>
+      <c r="C192"/>
     </row>
     <row r="193" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193"/>
       <c r="C193"/>
     </row>
-    <row r="194" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194"/>
-      <c r="C194"/>
-    </row>
-    <row r="195" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
+    <row r="194" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C195" s="32"/>
+      <c r="C194" s="32"/>
+    </row>
+    <row r="195" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195"/>
+      <c r="C195"/>
     </row>
     <row r="196" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196"/>
       <c r="C196"/>
     </row>
-    <row r="197" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197"/>
-      <c r="C197"/>
-    </row>
-    <row r="198" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
+    <row r="197" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="32"/>
+      <c r="C197" s="32"/>
+    </row>
+    <row r="198" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198"/>
+      <c r="C198"/>
     </row>
     <row r="199" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199"/>
       <c r="C199"/>
     </row>
-    <row r="200" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200"/>
-      <c r="C200"/>
-    </row>
-    <row r="201" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
+    <row r="200" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C201" s="32"/>
-    </row>
-    <row r="202" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202"/>
-      <c r="C202"/>
+      <c r="C200" s="32"/>
+    </row>
+    <row r="201" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+      <c r="C201"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F10:G10"/>
@@ -6205,11 +6177,6 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6253,29 +6220,29 @@
     <row r="2" spans="1:8" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="118" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="131"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="123" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135" t="s">
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="136"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -6293,18 +6260,18 @@
         <v>156</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="120">
+      <c r="C5" s="128">
         <f ca="1">NOW()</f>
-        <v>45392.660881018521</v>
-      </c>
-      <c r="D5" s="120"/>
+        <v>45401.828148148146</v>
+      </c>
+      <c r="D5" s="128"/>
       <c r="E5" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="137">
+      <c r="F5" s="129">
         <v>20230200001</v>
       </c>
-      <c r="G5" s="138"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6321,13 +6288,13 @@
         <v>158</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="133"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
@@ -6338,19 +6305,19 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="139"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
@@ -6365,15 +6332,15 @@
         <v>160</v>
       </c>
       <c r="B11" s="28"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="119"/>
+      <c r="G11" s="142"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -6388,17 +6355,17 @@
         <v>162</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="120">
+      <c r="C13" s="128">
         <v>44972.694506481479</v>
       </c>
-      <c r="D13" s="120"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="135" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="122"/>
+      <c r="G13" s="136"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
@@ -6413,8 +6380,8 @@
         <v>164</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="15"/>
       <c r="F15" s="26"/>
       <c r="G15" s="15"/>
@@ -6432,13 +6399,13 @@
         <v>165</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
@@ -6454,8 +6421,8 @@
         <v>325</v>
       </c>
       <c r="B19" s="28"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="26"/>
@@ -8471,27 +8438,27 @@
       <c r="G116" s="44"/>
     </row>
     <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="126" t="s">
+      <c r="A117" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="126"/>
-      <c r="E117" s="126"/>
-      <c r="F117" s="126"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="117"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
+      <c r="F117" s="117"/>
       <c r="G117" s="19">
         <f>SUM(G22:G115)</f>
         <v>42265</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="123" t="s">
+      <c r="A118" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B118" s="124"/>
-      <c r="C118" s="124"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="125"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="115"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="116"/>
       <c r="F118" s="24">
         <v>0.12</v>
       </c>
@@ -8501,14 +8468,14 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="126" t="s">
+      <c r="A119" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B119" s="126"/>
-      <c r="C119" s="126"/>
-      <c r="D119" s="126"/>
-      <c r="E119" s="126"/>
-      <c r="F119" s="126"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="117"/>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="117"/>
       <c r="G119" s="19">
         <f>+G117+G118</f>
         <v>47336.800000000003</v>
@@ -8900,6 +8867,12 @@
   </sheetData>
   <autoFilter ref="A21:G119" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A119:F119"/>
     <mergeCell ref="A117:F117"/>
@@ -8916,12 +8889,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
